--- a/data/trans_dic/DCD_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/DCD_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,84; 11,79</t>
+          <t>6,76; 11,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,51; 24,14</t>
+          <t>17,56; 24,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,56; 16,7</t>
+          <t>12,42; 16,57</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,97; 13,51</t>
+          <t>7,81; 13,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,39; 27,49</t>
+          <t>20,14; 27,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,34; 18,93</t>
+          <t>14,47; 19,12</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,08; 16,97</t>
+          <t>3,81; 16,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>28,73; 40,42</t>
+          <t>28,43; 40,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,06; 21,94</t>
+          <t>6,51; 21,99</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,87; 20,86</t>
+          <t>16,12; 20,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,86; 25,93</t>
+          <t>10,49; 26,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,06; 21,7</t>
+          <t>13,58; 21,75</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,28; 23,5</t>
+          <t>16,32; 23,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23,43; 37,24</t>
+          <t>23,3; 37,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,12; 30,97</t>
+          <t>22,94; 30,81</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,43; 6,98</t>
+          <t>1,42; 6,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>26,67; 32,45</t>
+          <t>26,42; 32,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,53; 25,64</t>
+          <t>20,54; 25,58</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,21; 14,83</t>
+          <t>10,2; 14,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>21,04; 28,22</t>
+          <t>21,08; 28,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,11; 21,43</t>
+          <t>17,4; 21,48</t>
         </is>
       </c>
     </row>
@@ -913,4 +914,610 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dolor crónico discapacitante (incluye Otro dolor crónico)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>45773</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>92280</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>138053</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>34171; 59596</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>78578; 108255</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>118285; 157907</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>47869</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>90210</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>138079</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>35322; 60788</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>77043; 103705</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>120761; 159625</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>67965</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>57464</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>125429</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>25443; 113005</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>47449; 67421</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>54359; 183628</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>188212</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>194198</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>382410</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>166792; 215332</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>102595; 255021</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>273356; 437789</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>623</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>93487</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>273279</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>366766</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>77506; 112247</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>196013; 313675</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>302004; 405576</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>7831</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>223551</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>231382</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>3422; 15914</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>201137; 246847</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>205766; 256290</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1618</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2180</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>451137</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>930982</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1382119</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>344292; 501579</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>754247; 1014569</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1209785; 1493355</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/DCD_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/DCD_R-Clase-trans_dic.xlsx
@@ -797,7 +797,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1357,7 +1357,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
